--- a/data/trans_camb/P26_R-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P26_R-Urba-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,9 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +545,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +583,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
         </is>
       </c>
     </row>
@@ -618,6 +639,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-4,34</t>
+          <t>-0,92</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2,04</t>
+          <t>2,2</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>8,81</t>
+          <t>7,81</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>4,34</t>
+          <t>10,85</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>12,43</t>
+          <t>5,87</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>14,63</t>
+          <t>7,94</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,86</t>
+          <t>3,25</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>8,45</t>
+          <t>7,03</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>12,35</t>
+          <t>2,76</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>5,27</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>5,46</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>8,87</t>
         </is>
       </c>
     </row>
@@ -685,47 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-11,88; 1,2</t>
+          <t>-3,65; 2,3</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-5,89; 9,92</t>
+          <t>-1,28; 6,89</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,4; 17,42</t>
+          <t>2,67; 13,47</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,62; 9,92</t>
+          <t>-0,47; 38,14</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>4,69; 19,91</t>
+          <t>2,06; 10,07</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>3,87; 37,43</t>
+          <t>3,19; 12,57</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-4,37; 5,41</t>
+          <t>-0,05; 6,95</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>3,28; 13,96</t>
+          <t>2,26; 13,59</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>5,38; 28,59</t>
+          <t>0,33; 5,62</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>2,51; 8,46</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>2,66; 8,56</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>2,96; 24,38</t>
         </is>
       </c>
     </row>
@@ -738,47 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-59,09%</t>
+          <t>-38,9%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>27,84%</t>
+          <t>93,35%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>120,02%</t>
+          <t>331,81%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>59,01%</t>
+          <t>461,28%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>168,78%</t>
+          <t>307,97%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>198,69%</t>
+          <t>416,97%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>11,71%</t>
+          <t>170,48%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>114,9%</t>
+          <t>369,21%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>168,01%</t>
+          <t>130,61%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>250,02%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>258,93%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>420,41%</t>
         </is>
       </c>
     </row>
@@ -791,47 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-93,94; 67,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-56,59; 305,78</t>
+          <t>-50,87; 794,53</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-6,43; 525,98</t>
+          <t>44,66; 1559,45</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-24,86; 259,06</t>
+          <t>-44,28; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>36,04; 520,53</t>
+          <t>36,09; 1799,91</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>21,39; 875,79</t>
+          <t>67,29; 1948,22</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-40,41; 122,66</t>
+          <t>-23,57; 1021,6</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>30,01; 320,05</t>
+          <t>25,05; 2039,03</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>45,82; 540,53</t>
+          <t>1,72; 482,91</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>70,66; 787,99</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>74,79; 842,1</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>91,48; 2224,83</t>
         </is>
       </c>
     </row>
@@ -848,47 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-2,61</t>
+          <t>1,42</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>3,75</t>
+          <t>3,35</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>6,66</t>
+          <t>4,42</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>4,38</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>3,04</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>5,6</t>
-        </is>
-      </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>3,76</t>
+          <t>5,98</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,37</t>
+          <t>4,21</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>4,93</t>
+          <t>3,07</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>5,05</t>
+          <t>2,32</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>4,63</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>4,22</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>3,63</t>
         </is>
       </c>
     </row>
@@ -901,47 +1000,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-12,3; 3,83</t>
+          <t>-1,38; 5,06</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-6,51; 12,42</t>
+          <t>-0,09; 8,4</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,58; 18,78</t>
+          <t>0,68; 10,31</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-5,86; 12,66</t>
+          <t>0,57; 9,32</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-3,74; 14,83</t>
+          <t>-1,95; 8,1</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-5,83; 12,19</t>
+          <t>0,48; 12,18</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-6,52; 6,7</t>
+          <t>-1,26; 10,31</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-2,19; 11,99</t>
+          <t>-2,45; 8,43</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-1,87; 12,58</t>
+          <t>-0,92; 5,55</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>0,54; 8,2</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>0,9; 8,73</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>0,06; 7,22</t>
         </is>
       </c>
     </row>
@@ -954,47 +1068,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-34,2%</t>
+          <t>108,35%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>49,19%</t>
+          <t>256,47%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>87,25%</t>
+          <t>338,05%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>24,94%</t>
+          <t>335,11%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>45,93%</t>
+          <t>63,02%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>30,8%</t>
+          <t>123,9%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>3,59%</t>
+          <t>87,28%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>48,4%</t>
+          <t>63,74%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>49,55%</t>
+          <t>72,86%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>145,18%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>132,51%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>113,89%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1136,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-88,01; 152,92</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-57,1; 365,87</t>
+          <t>-54,1; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-40,06; 573,54</t>
+          <t>-35,23; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-37,37; 189,44</t>
+          <t>-25,72; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-23,21; 201,9</t>
+          <t>-36,39; 330,68</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-33,83; 173,99</t>
+          <t>-4,94; 479,8</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-48,13; 98,71</t>
+          <t>-29,57; 375,45</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-16,94; 180,65</t>
+          <t>-37,82; 338,4</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-14,05; 183,48</t>
+          <t>-29,0; 292,0</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-0,16; 426,87</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>7,47; 437,97</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-6,77; 376,49</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1208,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>15,97</t>
+          <t>8,65</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>8,11</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>15,03</t>
+          <t>8,39</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>6,49</t>
+          <t>4,91</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>20,61</t>
+          <t>3,2</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>15,6</t>
+          <t>12,17</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>10,86</t>
+          <t>15,25</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>15,78</t>
+          <t>11,62</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>15,37</t>
+          <t>5,93</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>6,16</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>11,76</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>8,15</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1276,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>3,98; 36,27</t>
+          <t>1,64; 26,2</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 25,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,63; 36,7</t>
+          <t>0,0; 27,42</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 20,27</t>
+          <t>0,0; 17,48</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>8,53; 33,17</t>
+          <t>0,0; 12,99</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>6,48; 31,58</t>
+          <t>4,65; 26,17</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>3,71; 20,64</t>
+          <t>4,44; 30,49</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>8,27; 26,02</t>
+          <t>3,65; 26,85</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>7,92; 27,22</t>
+          <t>1,46; 15,04</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>2,22; 13,73</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>4,94; 23,47</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>2,76; 17,18</t>
         </is>
       </c>
     </row>
@@ -1175,40 +1349,55 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="E14" s="2" t="inlineStr">
+      <c r="F14" s="2" t="inlineStr">
         <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="F14" s="2" t="inlineStr">
+      <c r="G14" s="2" t="inlineStr">
         <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
+      <c r="H14" s="2" t="inlineStr">
         <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="H14" s="2" t="inlineStr">
+      <c r="I14" s="2" t="inlineStr">
         <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="I14" s="2" t="inlineStr">
+      <c r="J14" s="2" t="inlineStr">
         <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="J14" s="2" t="inlineStr">
+      <c r="K14" s="2" t="inlineStr">
         <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="K14" s="2" t="inlineStr">
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
         <is>
           <t>inf%</t>
         </is>
@@ -1266,6 +1455,21 @@
           <t>—; —</t>
         </is>
       </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -1280,47 +1484,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-1,15</t>
+          <t>1,11</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>3,67</t>
+          <t>2,45</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>8,84</t>
+          <t>6,49</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>3,96</t>
+          <t>7,63</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>10,55</t>
+          <t>4,46</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>10,42</t>
+          <t>7,55</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>1,8</t>
+          <t>4,84</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>7,92</t>
+          <t>5,9</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>9,86</t>
+          <t>2,91</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>5,11</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>5,62</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>6,72</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1552,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-5,91; 3,58</t>
+          <t>-0,8; 3,55</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,29; 9,12</t>
+          <t>0,1; 5,67</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,71; 15,4</t>
+          <t>3,3; 10,16</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,16; 9,11</t>
+          <t>1,88; 22,8</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>4,95; 15,63</t>
+          <t>1,62; 7,75</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>3,56; 23,91</t>
+          <t>4,34; 11,17</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-1,94; 5,07</t>
+          <t>1,81; 8,67</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>4,24; 11,73</t>
+          <t>2,42; 9,77</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>5,33; 18,51</t>
+          <t>0,93; 4,82</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>3,0; 7,44</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>3,49; 8,22</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>3,41; 13,77</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1620,62 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-17,96%</t>
+          <t>66,76%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>57,18%</t>
+          <t>147,25%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>137,74%</t>
+          <t>389,31%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>46,2%</t>
+          <t>458,06%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>123,03%</t>
+          <t>153,81%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>121,62%</t>
+          <t>260,46%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>23,64%</t>
+          <t>166,8%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>104,08%</t>
+          <t>203,49%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>129,62%</t>
+          <t>125,24%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>219,63%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>241,39%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>288,8%</t>
         </is>
       </c>
     </row>
@@ -1439,59 +1688,81 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-62,89; 98,9</t>
+          <t>-39,5; 554,29</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-25,31; 242,33</t>
+          <t>-8,2; 696,73</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>23,0; 358,55</t>
+          <t>114,9; 1343,07</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-10,59; 158,41</t>
+          <t>60,77; 2372,12</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>35,11; 250,59</t>
+          <t>27,54; 447,69</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>25,03; 364,38</t>
+          <t>87,32; 598,45</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-22,63; 91,8</t>
+          <t>37,88; 465,67</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>40,23; 211,51</t>
+          <t>48,69; 521,43</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>50,41; 285,55</t>
+          <t>27,89; 319,06</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>91,9; 433,21</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>107,07; 489,1</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>105,47; 761,84</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
